--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9, 2021-07-07)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.91, 2021-07-08)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -217,54 +217,57 @@
     <t xml:space="preserve">Gekoppelde Familie-ID's</t>
   </si>
   <si>
+    <t xml:space="preserve">mref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlijdensdatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consanguinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consanguinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consanguiniteit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_fetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is fetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is foetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_first_consult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Consult Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum eerst consult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first time seen in the clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eerst op poli gezien</t>
+  </si>
+  <si>
     <t xml:space="preserve">xref</t>
   </si>
   <si>
-    <t xml:space="preserve">date_deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlijdensdatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consanguinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consanguinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consanguiniteit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_fetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is fetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is foetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_first_consult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Consult Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum eerst consult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first time seen in the clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eerst op poli gezien</t>
-  </si>
-  <si>
     <t xml:space="preserve">cosas_diagnoses</t>
   </si>
   <si>
@@ -277,9 +280,6 @@
     <t xml:space="preserve">Primaire diagnose</t>
   </si>
   <si>
-    <t xml:space="preserve">mref</t>
-  </si>
-  <si>
     <t xml:space="preserve">cosasrefs_diagnoses</t>
   </si>
   <si>
@@ -370,6 +370,9 @@
     <t xml:space="preserve">Materiaalsoort</t>
   </si>
   <si>
+    <t xml:space="preserve">cosasrefs_material_types</t>
+  </si>
+  <si>
     <t xml:space="preserve">lab_indication</t>
   </si>
   <si>
@@ -382,6 +385,57 @@
     <t xml:space="preserve">cosasrefs_lab_indications</t>
   </si>
   <si>
+    <t xml:space="preserve">test_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_test_codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testdatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testresultaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_result_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test result status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status testresultaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disorder_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disorder code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aandoening code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_condition_codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosas_labs_array</t>
+  </si>
+  <si>
     <t xml:space="preserve">test_id</t>
   </si>
   <si>
@@ -389,51 +443,6 @@
   </si>
   <si>
     <t xml:space="preserve">Test-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_test_codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testdatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testresultaat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_result_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test result status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status testresultaat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disorder_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disorder code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aandoening code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_condition_codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosas_labs_array</t>
   </si>
   <si>
     <t xml:space="preserve">Test Result</t>
@@ -1408,7 +1417,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1417,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
@@ -1447,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1456,17 +1465,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1475,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
@@ -1505,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
         <v>92</v>
@@ -1526,7 +1535,7 @@
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1535,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
         <v>88</v>
@@ -1565,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
         <v>92</v>
@@ -1595,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -1625,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -1650,7 +1659,7 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1792,7 +1801,7 @@
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1803,24 +1812,26 @@
       <c r="H26" t="s">
         <v>105</v>
       </c>
-      <c r="I26"/>
+      <c r="I26" t="s">
+        <v>118</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1832,7 +1843,7 @@
         <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -1840,17 +1851,17 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
         <v>124</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1880,7 +1891,7 @@
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1964,7 +1975,7 @@
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2030,7 +2041,7 @@
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2134,17 +2145,17 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2174,7 +2185,7 @@
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2195,7 +2206,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
         <v>131</v>
@@ -2266,7 +2277,7 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2275,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
@@ -2305,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
@@ -2333,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -2361,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -2370,17 +2381,17 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2389,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I46" t="s">
         <v>125</v>
@@ -2410,7 +2421,7 @@
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2419,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -2431,7 +2442,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
         <v>131</v>
@@ -2447,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -2456,13 +2467,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
@@ -2475,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -2484,13 +2495,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -2503,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -2512,13 +2523,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -2531,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -2540,13 +2551,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -2559,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -2568,13 +2579,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
@@ -2587,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -2596,13 +2607,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
@@ -2615,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -2645,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -2670,7 +2681,7 @@
         <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -2679,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I56" t="s">
         <v>46</v>
@@ -2709,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -2737,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -2746,17 +2757,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -2765,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I59" t="s">
         <v>125</v>
@@ -2776,13 +2787,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
@@ -2795,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -2804,13 +2815,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
@@ -2823,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
@@ -2832,13 +2843,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
@@ -2851,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -2860,13 +2871,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
@@ -2879,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -2888,13 +2899,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
@@ -2907,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
@@ -2937,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.91, 2021-07-08)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9001, 2021-07-09)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -848,10 +848,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -884,10 +884,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1038,10 +1038,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9001, 2021-07-09)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9003, 2021-07-14)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t xml:space="preserve">mref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_desceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlijden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_inclusion_status</t>
   </si>
   <si>
     <t xml:space="preserve">date_deceased</t>
@@ -1297,7 +1309,7 @@
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1308,24 +1320,26 @@
       <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="I9"/>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1343,17 +1357,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1365,9 +1379,7 @@
         <v>46</v>
       </c>
       <c r="I11"/>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
+      <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
     </row>
@@ -1381,11 +1393,9 @@
       <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12"/>
+      <c r="E12" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1397,85 +1407,89 @@
         <v>46</v>
       </c>
       <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12" t="s">
-        <v>82</v>
-      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12"/>
       <c r="L12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s">
         <v>46</v>
       </c>
+      <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
       <c r="L13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14"/>
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14"/>
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1484,11 +1498,9 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" t="s">
         <v>88</v>
       </c>
+      <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -1505,7 +1517,7 @@
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1514,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
         <v>92</v>
@@ -1535,7 +1547,7 @@
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1544,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -1555,17 +1567,17 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1574,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
         <v>92</v>
@@ -1585,17 +1597,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1604,116 +1616,118 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19"/>
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
         <v>45</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
+      <c r="K20"/>
+      <c r="L20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I21"/>
       <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="K21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22"/>
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22"/>
+        <v>109</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
@@ -1726,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -1735,13 +1749,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
@@ -1754,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -1763,13 +1777,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
@@ -1782,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -1791,17 +1805,17 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1810,11 +1824,9 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -1831,7 +1843,7 @@
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1840,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I27" t="s">
         <v>122</v>
@@ -1857,11 +1869,11 @@
         <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1870,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -1881,17 +1893,17 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
         <v>128</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1900,26 +1912,28 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29"/>
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1928,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -1937,13 +1951,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
@@ -1956,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -1965,17 +1979,17 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1984,118 +1998,118 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" t="s">
-        <v>138</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D33"/>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33"/>
+        <v>109</v>
+      </c>
+      <c r="I33" t="s">
+        <v>142</v>
+      </c>
       <c r="J33"/>
-      <c r="K33" t="s">
-        <v>104</v>
-      </c>
-      <c r="L33" t="b">
-        <v>1</v>
-      </c>
+      <c r="K33"/>
+      <c r="L33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
-      </c>
-      <c r="I34" t="s">
-        <v>46</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I34"/>
       <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
+      <c r="K34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35"/>
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>139</v>
-      </c>
-      <c r="I35"/>
+        <v>143</v>
+      </c>
+      <c r="I35" t="s">
+        <v>46</v>
+      </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
@@ -2108,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -2117,13 +2131,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
         <v>112</v>
-      </c>
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
@@ -2136,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -2145,17 +2159,17 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2164,28 +2178,26 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>139</v>
-      </c>
-      <c r="I38" t="s">
-        <v>125</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2194,26 +2206,28 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>139</v>
-      </c>
-      <c r="I39"/>
+        <v>143</v>
+      </c>
+      <c r="I39" t="s">
+        <v>129</v>
+      </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2222,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -2231,107 +2245,107 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" t="s">
-        <v>103</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D41"/>
       <c r="E41" t="s">
         <v>45</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41" t="s">
-        <v>104</v>
-      </c>
-      <c r="L41" t="b">
-        <v>1</v>
-      </c>
+      <c r="K41"/>
+      <c r="L41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" t="s">
-        <v>46</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I42"/>
       <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
+      <c r="K42" t="s">
+        <v>108</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43"/>
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43"/>
+        <v>148</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
@@ -2344,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -2353,13 +2367,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
         <v>112</v>
-      </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" t="s">
-        <v>114</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
@@ -2372,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -2381,17 +2395,17 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2400,28 +2414,26 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" t="s">
-        <v>125</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2430,26 +2442,28 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47"/>
+        <v>148</v>
+      </c>
+      <c r="I47" t="s">
+        <v>129</v>
+      </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2458,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -2467,13 +2481,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
@@ -2486,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -2495,13 +2509,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -2514,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -2523,13 +2537,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -2542,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -2551,13 +2565,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -2570,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -2579,13 +2593,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
@@ -2598,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -2607,13 +2621,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
@@ -2626,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -2635,107 +2649,107 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" t="s">
-        <v>103</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D55"/>
       <c r="E55" t="s">
         <v>45</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
-      <c r="K55" t="s">
-        <v>104</v>
-      </c>
-      <c r="L55" t="b">
-        <v>1</v>
-      </c>
+      <c r="K55"/>
+      <c r="L55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>158</v>
-      </c>
-      <c r="I56" t="s">
-        <v>46</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I56"/>
       <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
+      <c r="K56" t="s">
+        <v>108</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57"/>
+        <v>43</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>158</v>
-      </c>
-      <c r="I57"/>
+        <v>162</v>
+      </c>
+      <c r="I57" t="s">
+        <v>46</v>
+      </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -2748,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -2757,17 +2771,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -2776,28 +2790,26 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>158</v>
-      </c>
-      <c r="I59" t="s">
-        <v>125</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -2806,22 +2818,24 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>158</v>
-      </c>
-      <c r="I60"/>
+        <v>162</v>
+      </c>
+      <c r="I60" t="s">
+        <v>129</v>
+      </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
@@ -2834,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
@@ -2843,13 +2857,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
@@ -2862,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -2871,13 +2885,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
@@ -2890,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -2899,17 +2913,17 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -2918,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
@@ -2927,35 +2941,63 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" t="s">
-        <v>103</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D65"/>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65" t="s">
-        <v>104</v>
-      </c>
-      <c r="L65" t="b">
+      <c r="K65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>162</v>
+      </c>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66" t="s">
+        <v>108</v>
+      </c>
+      <c r="L66" t="b">
         <v>1</v>
       </c>
     </row>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9003, 2021-07-14)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9004, 2021-07-16)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">categorical</t>
   </si>
   <si>
-    <t xml:space="preserve">cosasrefs_phenotypic_sex</t>
+    <t xml:space="preserve">cosasrefs_biological_sex</t>
   </si>
   <si>
     <t xml:space="preserve">maternal_id</t>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9004, 2021-07-16)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9005, 2021-07-19)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -1627,17 +1627,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20"/>
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1650,27 +1652,27 @@
       </c>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20"/>
+      <c r="K20" t="s">
+        <v>86</v>
+      </c>
       <c r="L20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D21"/>
       <c r="E21" t="s">
         <v>45</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1680,82 +1682,84 @@
       </c>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
+      <c r="K21"/>
+      <c r="L21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I22"/>
       <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
+      <c r="K22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23"/>
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
         <v>109</v>
       </c>
-      <c r="I23"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
@@ -1777,13 +1781,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
@@ -1805,13 +1809,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
@@ -1833,17 +1837,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1854,22 +1858,20 @@
       <c r="H27" t="s">
         <v>109</v>
       </c>
-      <c r="I27" t="s">
-        <v>122</v>
-      </c>
+      <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
@@ -1885,7 +1887,7 @@
         <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -1893,13 +1895,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
@@ -1915,7 +1917,7 @@
         <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -1923,17 +1925,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1944,24 +1946,26 @@
       <c r="H30" t="s">
         <v>109</v>
       </c>
-      <c r="I30"/>
+      <c r="I30" t="s">
+        <v>129</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1979,13 +1983,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
@@ -2007,17 +2011,17 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2028,31 +2032,27 @@
       <c r="H33" t="s">
         <v>109</v>
       </c>
-      <c r="I33" t="s">
-        <v>142</v>
-      </c>
+      <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D34"/>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -2060,84 +2060,88 @@
       <c r="H34" t="s">
         <v>109</v>
       </c>
-      <c r="I34"/>
+      <c r="I34" t="s">
+        <v>142</v>
+      </c>
       <c r="J34"/>
-      <c r="K34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
+      <c r="K34"/>
+      <c r="L34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
-      </c>
-      <c r="I35" t="s">
-        <v>46</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I35"/>
       <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="K35" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36"/>
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="s">
         <v>143</v>
       </c>
-      <c r="I36"/>
+      <c r="I36" t="s">
+        <v>46</v>
+      </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
@@ -2159,13 +2163,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
@@ -2187,17 +2191,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2208,26 +2212,24 @@
       <c r="H39" t="s">
         <v>143</v>
       </c>
-      <c r="I39" t="s">
-        <v>129</v>
-      </c>
+      <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2238,24 +2240,26 @@
       <c r="H40" t="s">
         <v>143</v>
       </c>
-      <c r="I40"/>
+      <c r="I40" t="s">
+        <v>129</v>
+      </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2273,22 +2277,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" t="s">
-        <v>107</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D42"/>
       <c r="E42" t="s">
         <v>45</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2298,82 +2300,84 @@
       </c>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42" t="s">
-        <v>108</v>
-      </c>
-      <c r="L42" t="b">
-        <v>1</v>
-      </c>
+      <c r="K42"/>
+      <c r="L42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
-      </c>
-      <c r="I43" t="s">
-        <v>46</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I43"/>
       <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
+      <c r="K43" t="s">
+        <v>108</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44"/>
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
         <v>148</v>
       </c>
-      <c r="I44"/>
+      <c r="I44" t="s">
+        <v>46</v>
+      </c>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
@@ -2395,13 +2399,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
@@ -2423,17 +2427,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2444,26 +2448,24 @@
       <c r="H47" t="s">
         <v>148</v>
       </c>
-      <c r="I47" t="s">
-        <v>129</v>
-      </c>
+      <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2474,24 +2476,26 @@
       <c r="H48" t="s">
         <v>148</v>
       </c>
-      <c r="I48"/>
+      <c r="I48" t="s">
+        <v>129</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2509,13 +2513,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -2537,13 +2541,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -2565,13 +2569,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -2593,13 +2597,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
@@ -2621,13 +2625,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
@@ -2649,13 +2653,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
@@ -2677,22 +2681,20 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" t="s">
-        <v>107</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D56"/>
       <c r="E56" t="s">
         <v>45</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -2702,82 +2704,84 @@
       </c>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="K56" t="s">
-        <v>108</v>
-      </c>
-      <c r="L56" t="b">
-        <v>1</v>
-      </c>
+      <c r="K56"/>
+      <c r="L56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>162</v>
-      </c>
-      <c r="I57" t="s">
-        <v>46</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I57"/>
       <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="K57" t="s">
+        <v>108</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58"/>
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>162</v>
       </c>
-      <c r="I58"/>
+      <c r="I58" t="s">
+        <v>46</v>
+      </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
@@ -2799,17 +2803,17 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -2820,26 +2824,24 @@
       <c r="H60" t="s">
         <v>162</v>
       </c>
-      <c r="I60" t="s">
-        <v>129</v>
-      </c>
+      <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2850,20 +2852,22 @@
       <c r="H61" t="s">
         <v>162</v>
       </c>
-      <c r="I61"/>
+      <c r="I61" t="s">
+        <v>129</v>
+      </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
@@ -2885,13 +2889,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
@@ -2913,13 +2917,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
@@ -2941,17 +2945,17 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -2969,22 +2973,20 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" t="s">
-        <v>107</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D66"/>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -2994,10 +2996,40 @@
       </c>
       <c r="I66"/>
       <c r="J66"/>
-      <c r="K66" t="s">
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>162</v>
+      </c>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67" t="s">
         <v>108</v>
       </c>
-      <c r="L66" t="b">
+      <c r="L67" t="b">
         <v>1</v>
       </c>
     </row>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9005, 2021-07-19)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9007, 2021-07-21)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -133,12 +133,12 @@
     <t xml:space="preserve">refEntity</t>
   </si>
   <si>
-    <t xml:space="preserve">defaultValue</t>
-  </si>
-  <si>
     <t xml:space="preserve">auto</t>
   </si>
   <si>
+    <t xml:space="preserve">dateType</t>
+  </si>
+  <si>
     <t xml:space="preserve">umcg_numr</t>
   </si>
   <si>
@@ -202,6 +202,9 @@
     <t xml:space="preserve">Maternale ID</t>
   </si>
   <si>
+    <t xml:space="preserve">xref</t>
+  </si>
+  <si>
     <t xml:space="preserve">paternal_id</t>
   </si>
   <si>
@@ -220,6 +223,18 @@
     <t xml:space="preserve">mref</t>
   </si>
   <si>
+    <t xml:space="preserve">phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPO terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_phenotype</t>
+  </si>
+  <si>
     <t xml:space="preserve">is_desceased</t>
   </si>
   <si>
@@ -262,6 +277,15 @@
     <t xml:space="preserve">bool</t>
   </si>
   <si>
+    <t xml:space="preserve">twin_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweelingstatus</t>
+  </si>
+  <si>
     <t xml:space="preserve">date_first_consult</t>
   </si>
   <si>
@@ -277,7 +301,22 @@
     <t xml:space="preserve">eerst op poli gezien</t>
   </si>
   <si>
-    <t xml:space="preserve">xref</t>
+    <t xml:space="preserve">date_last_updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date last updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum laatste bijwerking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date lasted updated in COSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum laatste bijwerking in COSAS</t>
   </si>
   <si>
     <t xml:space="preserve">cosas_diagnoses</t>
@@ -424,6 +463,9 @@
     <t xml:space="preserve">Testresultaat</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
     <t xml:space="preserve">test_result_status</t>
   </si>
   <si>
@@ -457,7 +499,13 @@
     <t xml:space="preserve">Test-ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Test Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGA Decipher Syndromes</t>
   </si>
   <si>
     <t xml:space="preserve">cosas_labs_ngs</t>
@@ -1086,10 +1134,10 @@
         <v>38</v>
       </c>
       <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
       </c>
       <c r="L1" t="s">
         <v>40</v>
@@ -1223,7 +1271,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1234,24 +1282,26 @@
       <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1262,24 +1312,26 @@
       <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1299,17 +1351,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1321,25 +1375,27 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1350,24 +1406,26 @@
       <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="I10"/>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1385,17 +1443,17 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1407,27 +1465,23 @@
         <v>46</v>
       </c>
       <c r="I12"/>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
+      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
         <v>85</v>
       </c>
+      <c r="D13"/>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1440,56 +1494,52 @@
       </c>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" t="s">
-        <v>86</v>
-      </c>
+      <c r="K13"/>
       <c r="L13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D14"/>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s">
         <v>46</v>
       </c>
+      <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15"/>
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1498,26 +1548,30 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I15"/>
-      <c r="J15"/>
+      <c r="J15" t="s">
+        <v>94</v>
+      </c>
       <c r="K15"/>
       <c r="L15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16"/>
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1526,40 +1580,42 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16"/>
+        <v>46</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16" t="s">
+        <v>100</v>
+      </c>
       <c r="K16"/>
       <c r="L16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17"/>
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -1567,17 +1623,17 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1586,28 +1642,26 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" t="s">
-        <v>92</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1616,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -1627,19 +1681,17 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1648,28 +1700,28 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20"/>
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
       <c r="J20"/>
-      <c r="K20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K20"/>
       <c r="L20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1678,88 +1730,86 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21"/>
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D22"/>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22"/>
+        <v>101</v>
+      </c>
+      <c r="I22" t="s">
+        <v>109</v>
+      </c>
       <c r="J22"/>
-      <c r="K22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
+      <c r="K22"/>
+      <c r="L22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23"/>
+        <v>101</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23" t="s">
+        <v>94</v>
+      </c>
       <c r="K23"/>
       <c r="L23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
@@ -1772,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -1781,17 +1831,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25"/>
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1800,82 +1852,94 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I25"/>
-      <c r="J25"/>
+      <c r="J25" t="s">
+        <v>100</v>
+      </c>
       <c r="K25"/>
       <c r="L25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26"/>
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
       <c r="E26" t="s">
         <v>45</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
+      <c r="J26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
       <c r="L26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27"/>
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
-      </c>
-      <c r="I27"/>
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1884,11 +1948,9 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" t="s">
         <v>122</v>
       </c>
+      <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -1905,7 +1967,7 @@
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1914,28 +1976,26 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" t="s">
-        <v>126</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
         <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
       </c>
       <c r="C30" t="s">
         <v>128</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1944,28 +2004,26 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
         <v>130</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>131</v>
-      </c>
-      <c r="C31" t="s">
-        <v>132</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1974,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -1983,17 +2041,17 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>134</v>
-      </c>
-      <c r="C32" t="s">
-        <v>135</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2002,9 +2060,11 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32"/>
+        <v>122</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
@@ -2021,7 +2081,7 @@
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2030,26 +2090,28 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33"/>
+        <v>122</v>
+      </c>
+      <c r="I33" t="s">
+        <v>139</v>
+      </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
         <v>141</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2058,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I34" t="s">
         <v>142</v>
@@ -2069,79 +2131,69 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" t="s">
-        <v>107</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D35"/>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
-      <c r="K35" t="s">
-        <v>108</v>
-      </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
+      <c r="K35"/>
+      <c r="L35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>44</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D36"/>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" t="s">
-        <v>46</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
@@ -2154,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -2163,17 +2215,17 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2182,26 +2234,30 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
-      </c>
-      <c r="I38"/>
+        <v>122</v>
+      </c>
+      <c r="I38" t="s">
+        <v>156</v>
+      </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39"/>
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2210,80 +2266,90 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="I39"/>
-      <c r="J39"/>
+      <c r="J39" t="s">
+        <v>100</v>
+      </c>
       <c r="K39"/>
       <c r="L39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40"/>
+        <v>119</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
-      </c>
-      <c r="I40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J40"/>
-      <c r="K40"/>
+        <v>122</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
       <c r="L40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41"/>
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41"/>
+        <v>157</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
@@ -2296,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
@@ -2305,83 +2371,73 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D43"/>
       <c r="E43" t="s">
         <v>45</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" t="s">
-        <v>108</v>
-      </c>
-      <c r="L43" t="b">
-        <v>1</v>
-      </c>
+      <c r="K43"/>
+      <c r="L43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
-        <v>44</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D44"/>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
-      </c>
-      <c r="I44" t="s">
-        <v>46</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2390,22 +2446,24 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
-      </c>
-      <c r="I45"/>
+        <v>157</v>
+      </c>
+      <c r="I45" t="s">
+        <v>139</v>
+      </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
@@ -2418,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -2427,17 +2485,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2446,26 +2504,28 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
-      </c>
-      <c r="I47"/>
+        <v>157</v>
+      </c>
+      <c r="I47" t="s">
+        <v>142</v>
+      </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
         <v>144</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>145</v>
-      </c>
-      <c r="C48" t="s">
-        <v>146</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2474,28 +2534,28 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
-      </c>
-      <c r="I48" t="s">
-        <v>129</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49"/>
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2504,26 +2564,32 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I49"/>
-      <c r="J49"/>
+      <c r="J49" t="s">
+        <v>163</v>
+      </c>
       <c r="K49"/>
-      <c r="L49"/>
+      <c r="L49" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50"/>
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2532,78 +2598,90 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I50"/>
-      <c r="J50"/>
+      <c r="J50" t="s">
+        <v>100</v>
+      </c>
       <c r="K50"/>
       <c r="L50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51"/>
+        <v>119</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
       <c r="E51" t="s">
         <v>45</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
+      <c r="J51" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
       <c r="L51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52"/>
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
-      </c>
-      <c r="I52"/>
+        <v>164</v>
+      </c>
+      <c r="I52" t="s">
+        <v>46</v>
+      </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
@@ -2616,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -2625,13 +2703,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
@@ -2644,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -2653,13 +2731,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
@@ -2672,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -2681,17 +2759,17 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" t="s">
         <v>160</v>
-      </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" t="s">
-        <v>161</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -2700,88 +2778,80 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
-      </c>
-      <c r="I56"/>
+        <v>164</v>
+      </c>
+      <c r="I56" t="s">
+        <v>142</v>
+      </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" t="s">
-        <v>107</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D57"/>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57" t="s">
-        <v>108</v>
-      </c>
-      <c r="L57" t="b">
-        <v>1</v>
-      </c>
+      <c r="K57"/>
+      <c r="L57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" t="s">
-        <v>44</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D58"/>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
-      </c>
-      <c r="I58" t="s">
-        <v>46</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
@@ -2794,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I59"/>
       <c r="J59"/>
@@ -2803,13 +2873,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
@@ -2822,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -2831,17 +2901,17 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2850,24 +2920,22 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>162</v>
-      </c>
-      <c r="I61" t="s">
-        <v>129</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
@@ -2880,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -2889,13 +2957,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
@@ -2908,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -2917,13 +2985,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
@@ -2936,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
@@ -2945,17 +3013,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65"/>
+        <v>97</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -2964,74 +3034,372 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I65"/>
-      <c r="J65"/>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
       <c r="K65"/>
       <c r="L65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66"/>
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>120</v>
+      </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
+      <c r="J66" t="s">
+        <v>121</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
       <c r="L66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>162</v>
-      </c>
-      <c r="I67"/>
+        <v>178</v>
+      </c>
+      <c r="I67" t="s">
+        <v>46</v>
+      </c>
       <c r="J67"/>
-      <c r="K67" t="s">
-        <v>108</v>
-      </c>
-      <c r="L67" t="b">
-        <v>1</v>
-      </c>
+      <c r="K67"/>
+      <c r="L67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>178</v>
+      </c>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>178</v>
+      </c>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>178</v>
+      </c>
+      <c r="I70" t="s">
+        <v>142</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>178</v>
+      </c>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>178</v>
+      </c>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>178</v>
+      </c>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>178</v>
+      </c>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>178</v>
+      </c>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>178</v>
+      </c>
+      <c r="I76"/>
+      <c r="J76" t="s">
+        <v>100</v>
+      </c>
+      <c r="K76"/>
+      <c r="L76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I77"/>
+      <c r="J77" t="s">
+        <v>121</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9007, 2021-07-21)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9011, 2021-07-26)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -58,16 +58,16 @@
     <t xml:space="preserve">Patiëntgerelateerde informatie met familieleden</t>
   </si>
   <si>
-    <t xml:space="preserve">diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnoses and certainty of diagnoses per patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnoses en zekerheid van diagnoses per patiënt</t>
+    <t xml:space="preserve">clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings and circumstances relating to the examination and treatment of a patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevindingen en omstandigheden in verband met het onderzoek en de behandeling van een patiënt</t>
   </si>
   <si>
     <t xml:space="preserve">samples</t>
@@ -133,12 +133,15 @@
     <t xml:space="preserve">refEntity</t>
   </si>
   <si>
+    <t xml:space="preserve">rangeMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rangeMax</t>
+  </si>
+  <si>
     <t xml:space="preserve">auto</t>
   </si>
   <si>
-    <t xml:space="preserve">dateType</t>
-  </si>
-  <si>
     <t xml:space="preserve">umcg_numr</t>
   </si>
   <si>
@@ -223,147 +226,201 @@
     <t xml:space="preserve">mref</t>
   </si>
   <si>
-    <t xml:space="preserve">phenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPO terms</t>
+    <t xml:space="preserve">is_desceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlijden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_inclusion_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlijdensdatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_at_death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age at death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeftijd bij overlijden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The age at which death occurred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De leeftijd waarop het overlijden plaatsvond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consanguinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consanguinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consanguiniteit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_fetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is fetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is foetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_twin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweelingstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has twin or is suspected of having a twin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heeft een tweeling of wordt ervan verdacht een tweeling te hebben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_patient_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked Patient ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gekoppelde patientnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_first_consult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Consult Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum eerst consult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first time seen in the clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eerst op poli gezien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_last_updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date last updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum laatste bijwerking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date lasted updated in COSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum laatste bijwerking in COSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosas_clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenistype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event is either diagnosis or HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis is diagnose of HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary_dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Diagnoses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primaire diagnose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_diagnoses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary_dx_certainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certainty of the primary diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zekerheid van de primaire diagnose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_diagnostic_certainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra_dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional diagnoses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bijkomende diagnoses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra_dx_certainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certainty of the additional diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zekerheid van de bijkomende diagnose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPO Codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPO codes</t>
   </si>
   <si>
     <t xml:space="preserve">cosasrefs_phenotype</t>
   </si>
   <si>
-    <t xml:space="preserve">is_desceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlijden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_inclusion_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlijdensdatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consanguinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consanguinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consanguiniteit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_fetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is fetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is foetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twin_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tweelingstatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_first_consult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Consult Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum eerst consult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first time seen in the clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eerst op poli gezien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_last_updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date last updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum laatste bijwerking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date lasted updated in COSAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum laatste bijwerking in COSAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosas_diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary_dx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primaire diagnose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary_dx_certainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certainty of the primary diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zekerheid van de primaire diagnose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_diagnostic_certainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extra_dx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bijkomende diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extra_dx_certainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certainty of the additional diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zekerheid van de bijkomende diagnose</t>
-  </si>
-  <si>
     <t xml:space="preserve">ond_id</t>
   </si>
   <si>
@@ -502,15 +559,12 @@
     <t xml:space="preserve">Test Code</t>
   </si>
   <si>
+    <t xml:space="preserve">cosas_labs_ngs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Result</t>
   </si>
   <si>
-    <t xml:space="preserve">SGA Decipher Syndromes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosas_labs_ngs</t>
-  </si>
-  <si>
     <t xml:space="preserve">sequencer</t>
   </si>
   <si>
@@ -530,6 +584,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sequencing Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seqtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seq Type</t>
   </si>
   <si>
     <t xml:space="preserve">capturing_kit</t>
@@ -1142,22 +1202,25 @@
       <c r="L1" t="s">
         <v>40</v>
       </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1166,26 +1229,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
+      <c r="M2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1194,26 +1258,27 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
+      <c r="M3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1222,26 +1287,27 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
+      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1250,28 +1316,29 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
+      <c r="M5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1280,28 +1347,29 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
+      <c r="M6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1310,28 +1378,29 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
+      <c r="M7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1340,30 +1409,29 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
+      <c r="M8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D9"/>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1372,30 +1440,29 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
+      <c r="M9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1404,14 +1471,13 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
+      <c r="M10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1423,9 +1489,11 @@
       <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1434,26 +1502,33 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>130</v>
+      </c>
+      <c r="M11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1462,26 +1537,27 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1490,27 +1566,30 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
         <v>89</v>
       </c>
-      <c r="D14"/>
-      <c r="E14" t="s">
-        <v>86</v>
-      </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
@@ -1518,28 +1597,29 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14"/>
-      <c r="J14"/>
+      <c r="J14" t="s">
+        <v>94</v>
+      </c>
       <c r="K14"/>
       <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D15"/>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1548,30 +1628,29 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15"/>
-      <c r="J15" t="s">
-        <v>94</v>
-      </c>
+      <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
+      <c r="M15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1580,88 +1659,95 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
+      <c r="M16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17"/>
+        <v>47</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
       <c r="K17"/>
       <c r="L17"/>
+      <c r="M17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
+      <c r="M18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1670,28 +1756,29 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" t="s">
-        <v>105</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
+      <c r="M19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20"/>
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1700,28 +1787,29 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" t="s">
         <v>109</v>
       </c>
-      <c r="J20"/>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>114</v>
+      </c>
       <c r="K20"/>
       <c r="L20"/>
+      <c r="M20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1730,28 +1818,27 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" t="s">
-        <v>105</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
+      <c r="M21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1760,30 +1847,29 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
+      <c r="M22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D23"/>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1792,28 +1878,29 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23" t="s">
-        <v>94</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
+      <c r="M23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1822,28 +1909,29 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24"/>
+        <v>109</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
+      <c r="M24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D25"/>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1852,94 +1940,95 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25" t="s">
-        <v>100</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
+      <c r="M25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26"/>
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>134</v>
+      </c>
       <c r="J26" t="s">
-        <v>121</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K26"/>
       <c r="L26"/>
+      <c r="M26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D27"/>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
+      <c r="M27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28"/>
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1948,82 +2037,97 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I28"/>
-      <c r="J28"/>
+      <c r="J28" t="s">
+        <v>108</v>
+      </c>
       <c r="K28"/>
       <c r="L28"/>
+      <c r="M28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29"/>
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I29"/>
-      <c r="J29"/>
+      <c r="J29" t="s">
+        <v>140</v>
+      </c>
       <c r="K29"/>
       <c r="L29"/>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30"/>
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30"/>
+        <v>141</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
+      <c r="M30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2032,26 +2136,27 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
+      <c r="M31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2060,28 +2165,27 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32" t="s">
-        <v>135</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
+      <c r="M32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2090,28 +2194,27 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" t="s">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
+      <c r="M33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2120,28 +2223,27 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" t="s">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
+      <c r="M34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2150,26 +2252,29 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35"/>
+        <v>141</v>
+      </c>
+      <c r="I35" t="s">
+        <v>154</v>
+      </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
+      <c r="M35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2178,26 +2283,29 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
-      </c>
-      <c r="I36"/>
+        <v>141</v>
+      </c>
+      <c r="I36" t="s">
+        <v>158</v>
+      </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
+      <c r="M36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2206,26 +2314,29 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37"/>
+        <v>141</v>
+      </c>
+      <c r="I37" t="s">
+        <v>161</v>
+      </c>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
+      <c r="M37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2234,30 +2345,27 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38" t="s">
-        <v>156</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
+      <c r="M38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D39"/>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2266,94 +2374,89 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="I39"/>
-      <c r="J39" t="s">
-        <v>100</v>
-      </c>
+      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
+      <c r="M39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D40"/>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="I40"/>
-      <c r="J40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
+      <c r="J40"/>
+      <c r="K40"/>
       <c r="L40"/>
+      <c r="M40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D41"/>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
+      <c r="M41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42"/>
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2362,82 +2465,97 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="I42"/>
-      <c r="J42"/>
+      <c r="J42" t="s">
+        <v>108</v>
+      </c>
       <c r="K42"/>
       <c r="L42"/>
+      <c r="M42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43"/>
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="I43"/>
-      <c r="J43"/>
+      <c r="J43" t="s">
+        <v>140</v>
+      </c>
       <c r="K43"/>
       <c r="L43"/>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44"/>
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44"/>
+        <v>176</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
+      <c r="M44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2446,28 +2564,27 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" t="s">
-        <v>139</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
+      <c r="M45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2476,26 +2593,27 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
+      <c r="M46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2504,28 +2622,27 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" t="s">
-        <v>142</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
+      <c r="M47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2534,28 +2651,29 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>157</v>
-      </c>
-      <c r="I48"/>
+        <v>176</v>
+      </c>
+      <c r="I48" t="s">
+        <v>158</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
+      <c r="M48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D49"/>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2564,32 +2682,27 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I49"/>
-      <c r="J49" t="s">
-        <v>163</v>
-      </c>
+      <c r="J49"/>
       <c r="K49"/>
-      <c r="L49" t="s">
-        <v>149</v>
-      </c>
+      <c r="L49"/>
+      <c r="M49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" t="s">
-        <v>98</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D50"/>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2598,150 +2711,159 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
-      </c>
-      <c r="I50"/>
-      <c r="J50" t="s">
-        <v>100</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="I50" t="s">
+        <v>161</v>
+      </c>
+      <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
+      <c r="M50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" t="s">
-        <v>120</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D51"/>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I51"/>
-      <c r="J51" t="s">
-        <v>121</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
+      <c r="J51"/>
+      <c r="K51"/>
       <c r="L51"/>
+      <c r="M51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>164</v>
-      </c>
-      <c r="I52" t="s">
-        <v>46</v>
-      </c>
-      <c r="J52"/>
+        <v>176</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52" t="s">
+        <v>108</v>
+      </c>
       <c r="K52"/>
       <c r="L52"/>
+      <c r="M52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53"/>
+        <v>138</v>
+      </c>
+      <c r="D53" t="s">
+        <v>139</v>
+      </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I53"/>
-      <c r="J53"/>
+      <c r="J53" t="s">
+        <v>140</v>
+      </c>
       <c r="K53"/>
       <c r="L53"/>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54"/>
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>164</v>
-      </c>
-      <c r="I54"/>
+        <v>181</v>
+      </c>
+      <c r="I54" t="s">
+        <v>47</v>
+      </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
+      <c r="M54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -2750,26 +2872,27 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
+      <c r="M55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -2778,28 +2901,27 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>164</v>
-      </c>
-      <c r="I56" t="s">
-        <v>142</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
+      <c r="M56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -2808,26 +2930,27 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
+      <c r="M57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -2836,26 +2959,29 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>164</v>
-      </c>
-      <c r="I58"/>
+        <v>181</v>
+      </c>
+      <c r="I58" t="s">
+        <v>161</v>
+      </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
+      <c r="M58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -2864,26 +2990,27 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
+      <c r="M59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
         <v>167</v>
-      </c>
-      <c r="B60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" t="s">
-        <v>168</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -2892,26 +3019,27 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
+      <c r="M60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2920,26 +3048,27 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
+      <c r="M61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -2948,26 +3077,27 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
+      <c r="M62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -2976,26 +3106,27 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
+      <c r="M63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3004,28 +3135,27 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
+      <c r="M64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" t="s">
-        <v>98</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D65"/>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3034,94 +3164,87 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I65"/>
-      <c r="J65" t="s">
-        <v>100</v>
-      </c>
+      <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
+      <c r="M65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" t="s">
-        <v>120</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D66"/>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I66"/>
-      <c r="J66" t="s">
-        <v>121</v>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
+      <c r="J66"/>
+      <c r="K66"/>
       <c r="L66"/>
+      <c r="M66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" t="s">
-        <v>44</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D67"/>
       <c r="E67" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>178</v>
-      </c>
-      <c r="I67" t="s">
-        <v>46</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
+      <c r="M67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68"/>
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3130,84 +3253,97 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I68"/>
-      <c r="J68"/>
+      <c r="J68" t="s">
+        <v>108</v>
+      </c>
       <c r="K68"/>
       <c r="L68"/>
+      <c r="M68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69"/>
+        <v>138</v>
+      </c>
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I69"/>
-      <c r="J69"/>
+      <c r="J69" t="s">
+        <v>140</v>
+      </c>
       <c r="K69"/>
       <c r="L69"/>
+      <c r="M69" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70"/>
+        <v>44</v>
+      </c>
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="I70" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
+      <c r="M70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -3216,26 +3352,27 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
+      <c r="M71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3244,26 +3381,27 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
+      <c r="M72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3272,26 +3410,29 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>178</v>
-      </c>
-      <c r="I73"/>
+        <v>198</v>
+      </c>
+      <c r="I73" t="s">
+        <v>161</v>
+      </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
+      <c r="M73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3300,26 +3441,27 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
+      <c r="M74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3328,28 +3470,27 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
+      <c r="M75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" t="s">
-        <v>98</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D76"/>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3358,48 +3499,139 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="I76"/>
-      <c r="J76" t="s">
-        <v>100</v>
-      </c>
+      <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
+      <c r="M76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" t="s">
-        <v>120</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D77"/>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="I77"/>
-      <c r="J77" t="s">
-        <v>121</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
+      <c r="J77"/>
+      <c r="K77"/>
       <c r="L77"/>
+      <c r="M77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>198</v>
+      </c>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>198</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>198</v>
+      </c>
+      <c r="I80"/>
+      <c r="J80" t="s">
+        <v>140</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9011, 2021-07-26)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9013, 2021-07-27)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">mref</t>
   </si>
   <si>
-    <t xml:space="preserve">is_desceased</t>
+    <t xml:space="preserve">is_deceased</t>
   </si>
   <si>
     <t xml:space="preserve">Is Deceased</t>
@@ -493,6 +493,15 @@
     <t xml:space="preserve">cosasrefs_lab_indications</t>
   </si>
   <si>
+    <t xml:space="preserve">test_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">test_code</t>
   </si>
   <si>
@@ -547,22 +556,10 @@
     <t xml:space="preserve">cosas_labs_array</t>
   </si>
   <si>
-    <t xml:space="preserve">test_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Code</t>
   </si>
   <si>
     <t xml:space="preserve">cosas_labs_ngs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Result</t>
   </si>
   <si>
     <t xml:space="preserve">sequencer</t>
@@ -2301,11 +2298,11 @@
         <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2316,9 +2313,7 @@
       <c r="H37" t="s">
         <v>141</v>
       </c>
-      <c r="I37" t="s">
-        <v>161</v>
-      </c>
+      <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
@@ -2332,11 +2327,11 @@
         <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2347,7 +2342,9 @@
       <c r="H38" t="s">
         <v>141</v>
       </c>
-      <c r="I38"/>
+      <c r="I38" t="s">
+        <v>164</v>
+      </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
@@ -2365,7 +2362,7 @@
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2384,17 +2381,17 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
         <v>169</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>170</v>
-      </c>
-      <c r="C40" t="s">
-        <v>171</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2423,7 +2420,7 @@
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2434,9 +2431,7 @@
       <c r="H41" t="s">
         <v>141</v>
       </c>
-      <c r="I41" t="s">
-        <v>175</v>
-      </c>
+      <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
@@ -2444,19 +2439,17 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D42"/>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2467,32 +2460,32 @@
       <c r="H42" t="s">
         <v>141</v>
       </c>
-      <c r="I42"/>
-      <c r="J42" t="s">
-        <v>108</v>
-      </c>
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -2502,71 +2495,75 @@
       </c>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
-      <c r="M43" t="b">
-        <v>1</v>
-      </c>
+      <c r="M43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I44" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44"/>
+        <v>141</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44" t="s">
+        <v>140</v>
+      </c>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="M44"/>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45"/>
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>176</v>
-      </c>
-      <c r="I45"/>
+        <v>179</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -2574,13 +2571,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
@@ -2593,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -2603,13 +2600,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
@@ -2622,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -2632,17 +2629,17 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2651,11 +2648,9 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>176</v>
-      </c>
-      <c r="I48" t="s">
-        <v>158</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
@@ -2663,17 +2658,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2682,9 +2677,11 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>176</v>
-      </c>
-      <c r="I49"/>
+        <v>179</v>
+      </c>
+      <c r="I49" t="s">
+        <v>158</v>
+      </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
@@ -2695,14 +2692,14 @@
         <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2711,11 +2708,9 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>176</v>
-      </c>
-      <c r="I50" t="s">
-        <v>161</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
@@ -2726,14 +2721,14 @@
         <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -2742,9 +2737,11 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>176</v>
-      </c>
-      <c r="I51"/>
+        <v>179</v>
+      </c>
+      <c r="I51" t="s">
+        <v>164</v>
+      </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
@@ -2752,19 +2749,17 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" t="s">
-        <v>106</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D52"/>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -2773,108 +2768,110 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I52"/>
-      <c r="J52" t="s">
-        <v>108</v>
-      </c>
+      <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="M53" t="b">
-        <v>1</v>
-      </c>
+      <c r="M53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>181</v>
-      </c>
-      <c r="I54" t="s">
-        <v>47</v>
-      </c>
-      <c r="J54"/>
+        <v>179</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54" t="s">
+        <v>140</v>
+      </c>
       <c r="K54"/>
       <c r="L54"/>
-      <c r="M54"/>
+      <c r="M54" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55"/>
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
         <v>181</v>
       </c>
-      <c r="I55"/>
+      <c r="I55" t="s">
+        <v>47</v>
+      </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -2882,13 +2879,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
@@ -2911,13 +2908,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
@@ -2940,17 +2937,17 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -2961,9 +2958,7 @@
       <c r="H58" t="s">
         <v>181</v>
       </c>
-      <c r="I58" t="s">
-        <v>161</v>
-      </c>
+      <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
@@ -2971,17 +2966,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -2992,7 +2987,9 @@
       <c r="H59" t="s">
         <v>181</v>
       </c>
-      <c r="I59"/>
+      <c r="I59" t="s">
+        <v>158</v>
+      </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
@@ -3000,13 +2997,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
@@ -3029,17 +3026,17 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -3050,7 +3047,9 @@
       <c r="H61" t="s">
         <v>181</v>
       </c>
-      <c r="I61"/>
+      <c r="I61" t="s">
+        <v>164</v>
+      </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -3058,17 +3057,17 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3087,13 +3086,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
@@ -3116,13 +3115,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
@@ -3145,13 +3144,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
@@ -3174,13 +3173,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
@@ -3203,13 +3202,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
@@ -3232,19 +3231,17 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" t="s">
-        <v>106</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D68"/>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3256,31 +3253,27 @@
         <v>181</v>
       </c>
       <c r="I68"/>
-      <c r="J68" t="s">
-        <v>108</v>
-      </c>
+      <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" t="s">
-        <v>139</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D69"/>
       <c r="E69" t="s">
         <v>46</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3289,101 +3282,107 @@
         <v>181</v>
       </c>
       <c r="I69"/>
-      <c r="J69" t="s">
-        <v>140</v>
-      </c>
+      <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
-      <c r="M69" t="b">
-        <v>1</v>
-      </c>
+      <c r="M69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>198</v>
-      </c>
-      <c r="I70" t="s">
-        <v>47</v>
-      </c>
-      <c r="J70"/>
+        <v>181</v>
+      </c>
+      <c r="I70"/>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71"/>
+        <v>138</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
       <c r="E71" t="s">
         <v>46</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="I71"/>
-      <c r="J71"/>
+      <c r="J71" t="s">
+        <v>140</v>
+      </c>
       <c r="K71"/>
       <c r="L71"/>
-      <c r="M71"/>
+      <c r="M71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72"/>
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>45</v>
+      </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>198</v>
-      </c>
-      <c r="I72"/>
+        <v>197</v>
+      </c>
+      <c r="I72" t="s">
+        <v>47</v>
+      </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
@@ -3391,17 +3390,17 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3410,11 +3409,9 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>198</v>
-      </c>
-      <c r="I73" t="s">
-        <v>161</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
@@ -3422,13 +3419,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -3441,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
@@ -3451,17 +3448,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3470,9 +3467,11 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>198</v>
-      </c>
-      <c r="I75"/>
+        <v>197</v>
+      </c>
+      <c r="I75" t="s">
+        <v>164</v>
+      </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
@@ -3480,13 +3479,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
@@ -3499,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
@@ -3509,13 +3508,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
@@ -3528,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
@@ -3538,17 +3537,17 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3557,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
@@ -3567,19 +3566,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" t="s">
-        <v>106</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D79"/>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3588,48 +3585,108 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I79"/>
-      <c r="J79" t="s">
-        <v>108</v>
-      </c>
+      <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
-      </c>
-      <c r="D80" t="s">
-        <v>139</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D80"/>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I80"/>
-      <c r="J80" t="s">
-        <v>140</v>
-      </c>
+      <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
-      <c r="M80" t="b">
+      <c r="M80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>197</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>197</v>
+      </c>
+      <c r="I82"/>
+      <c r="J82" t="s">
+        <v>140</v>
+      </c>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82" t="b">
         <v>1</v>
       </c>
     </row>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9013, 2021-07-27)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9015, 2021-07-28)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -133,12 +133,6 @@
     <t xml:space="preserve">refEntity</t>
   </si>
   <si>
-    <t xml:space="preserve">rangeMin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rangeMax</t>
-  </si>
-  <si>
     <t xml:space="preserve">auto</t>
   </si>
   <si>
@@ -205,177 +199,180 @@
     <t xml:space="preserve">Maternale ID</t>
   </si>
   <si>
+    <t xml:space="preserve">paternal_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paternal ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_family_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked Family IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gekoppelde Familie-ID's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlijden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_inclusion_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlijdensdatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_at_death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age at death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeftijd bij overlijden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The age at which death occurred (in years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De leeftijd waarop het overlijden plaatsvond (in jaren)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consanguinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consanguinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consanguiniteit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_fetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is fetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is foetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_twin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweelingstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has twin or is suspected of having a twin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heeft een tweeling of wordt ervan verdacht een tweeling te hebben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_patient_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked Patient ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gekoppelde patientnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_first_consult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Consult Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum eerst consult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first time seen in the clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eerst op poli gezien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_last_updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date last updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum laatste bijwerking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date lasted updated in COSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum laatste bijwerking in COSAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">xref</t>
   </si>
   <si>
-    <t xml:space="preserve">paternal_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paternal ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_family_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linked Family IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gekoppelde Familie-ID's</t>
+    <t xml:space="preserve">cosas_clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenistype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event is either diagnosis or HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis is diagnose of HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary_dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Diagnoses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primaire diagnose</t>
   </si>
   <si>
     <t xml:space="preserve">mref</t>
   </si>
   <si>
-    <t xml:space="preserve">is_deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlijden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_inclusion_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlijdensdatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_at_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age at death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeftijd bij overlijden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The age at which death occurred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De leeftijd waarop het overlijden plaatsvond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consanguinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consanguinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consanguiniteit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_fetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is fetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is foetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_twin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tweelingstatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has twin or is suspected of having a twin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heeft een tweeling of wordt ervan verdacht een tweeling te hebben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linked Patient ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gekoppelde patientnummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_first_consult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Consult Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum eerst consult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first time seen in the clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eerst op poli gezien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_last_updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date last updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum laatste bijwerking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date lasted updated in COSAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum laatste bijwerking in COSAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosas_clinical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">event_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebeurtenistype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event is either diagnosis or HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebeurtenis is diagnose of HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary_dx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primaire diagnose</t>
-  </si>
-  <si>
     <t xml:space="preserve">cosasrefs_diagnoses</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
   </si>
   <si>
     <t xml:space="preserve">Testresultaat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">test_result_status</t>
@@ -1196,57 +1190,49 @@
       <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1255,27 +1241,25 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1284,27 +1268,25 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1313,29 +1295,27 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1344,29 +1324,25 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1375,29 +1351,25 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1406,29 +1378,25 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1437,29 +1405,27 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1468,30 +1434,28 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
@@ -1499,33 +1463,27 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>130</v>
-      </c>
-      <c r="M11"/>
+        <v>79</v>
+      </c>
+      <c r="K11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1534,27 +1492,25 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1563,29 +1519,27 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
         <v>90</v>
       </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1594,29 +1548,27 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1625,29 +1577,27 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1656,32 +1606,30 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" t="s">
-        <v>107</v>
-      </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
@@ -1689,62 +1637,58 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
         <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1753,29 +1697,27 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
         <v>110</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>111</v>
       </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1784,29 +1726,27 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1815,27 +1755,25 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" t="s">
-        <v>119</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1844,29 +1782,27 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>123</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1875,29 +1811,27 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
         <v>125</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>127</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1906,29 +1840,27 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
         <v>128</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>130</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1937,64 +1869,60 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
         <v>131</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" t="s">
         <v>132</v>
       </c>
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" t="s">
-        <v>133</v>
-      </c>
       <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
         <v>135</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>136</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2003,62 +1931,58 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
         <v>103</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
         <v>104</v>
       </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>107</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>109</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
         <v>138</v>
       </c>
-      <c r="B29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" t="s">
-        <v>139</v>
-      </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -2067,64 +1991,60 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>140</v>
-      </c>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29" t="b">
+        <v>139</v>
+      </c>
+      <c r="K29" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
         <v>45</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>141</v>
-      </c>
-      <c r="I30" t="s">
-        <v>47</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
         <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2133,27 +2053,25 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
         <v>142</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>144</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2162,27 +2080,25 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
         <v>145</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>146</v>
-      </c>
-      <c r="C33" t="s">
-        <v>147</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2191,27 +2107,25 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
         <v>148</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>150</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2220,27 +2134,25 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
         <v>151</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>152</v>
-      </c>
-      <c r="C35" t="s">
-        <v>153</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2249,29 +2161,27 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
         <v>155</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>156</v>
-      </c>
-      <c r="C36" t="s">
-        <v>157</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2280,29 +2190,27 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" t="s">
         <v>159</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>160</v>
-      </c>
-      <c r="C37" t="s">
-        <v>161</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2311,27 +2219,25 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
         <v>162</v>
       </c>
-      <c r="B38" t="s">
-        <v>163</v>
-      </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2340,29 +2246,27 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
         <v>165</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>166</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2371,27 +2275,25 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
         <v>168</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>169</v>
-      </c>
-      <c r="C40" t="s">
-        <v>170</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2400,27 +2302,25 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
         <v>172</v>
-      </c>
-      <c r="B41" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" t="s">
-        <v>174</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2429,27 +2329,25 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
         <v>175</v>
-      </c>
-      <c r="B42" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" t="s">
-        <v>177</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2458,32 +2356,30 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
         <v>103</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>104</v>
       </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" t="s">
-        <v>107</v>
-      </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
@@ -2491,31 +2387,29 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
         <v>138</v>
       </c>
-      <c r="B44" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" t="s">
-        <v>139</v>
-      </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -2524,64 +2418,60 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>140</v>
-      </c>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44" t="b">
+        <v>139</v>
+      </c>
+      <c r="K44" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" t="s">
         <v>45</v>
-      </c>
-      <c r="E45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>179</v>
-      </c>
-      <c r="I45" t="s">
-        <v>47</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
         <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2590,27 +2480,25 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
         <v>142</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>144</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2619,27 +2507,25 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
         <v>148</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>149</v>
-      </c>
-      <c r="C48" t="s">
-        <v>150</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2648,27 +2534,25 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
         <v>155</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>156</v>
-      </c>
-      <c r="C49" t="s">
-        <v>157</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2677,29 +2561,27 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
         <v>159</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>160</v>
-      </c>
-      <c r="C50" t="s">
-        <v>161</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2708,27 +2590,25 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -2737,29 +2617,27 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" t="s">
         <v>165</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>166</v>
-      </c>
-      <c r="C52" t="s">
-        <v>167</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -2768,30 +2646,28 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
         <v>103</v>
       </c>
-      <c r="B53" t="s">
+      <c r="E53" t="s">
         <v>104</v>
       </c>
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" t="s">
-        <v>107</v>
-      </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
@@ -2799,31 +2675,29 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
         <v>138</v>
       </c>
-      <c r="B54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" t="s">
-        <v>139</v>
-      </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -2832,64 +2706,60 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>140</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54" t="b">
+        <v>139</v>
+      </c>
+      <c r="K54" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
         <v>42</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>43</v>
       </c>
-      <c r="C55" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>179</v>
+      </c>
+      <c r="I55" t="s">
         <v>45</v>
-      </c>
-      <c r="E55" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>181</v>
-      </c>
-      <c r="I55" t="s">
-        <v>47</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
         <v>48</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" t="s">
-        <v>50</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -2898,27 +2768,25 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s">
         <v>142</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>143</v>
-      </c>
-      <c r="C57" t="s">
-        <v>144</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -2927,27 +2795,25 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
         <v>148</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>150</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -2956,27 +2822,25 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s">
         <v>155</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>156</v>
-      </c>
-      <c r="C59" t="s">
-        <v>157</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -2985,29 +2849,27 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
         <v>159</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>160</v>
-      </c>
-      <c r="C60" t="s">
-        <v>161</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3016,27 +2878,25 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -3045,29 +2905,27 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
         <v>165</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>166</v>
-      </c>
-      <c r="C62" t="s">
-        <v>167</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3076,27 +2934,25 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3105,27 +2961,25 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3134,27 +2988,25 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
         <v>186</v>
-      </c>
-      <c r="B65" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" t="s">
-        <v>188</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3163,27 +3015,25 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3192,27 +3042,25 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3221,27 +3069,25 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3250,27 +3096,25 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3279,30 +3123,28 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
         <v>103</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
         <v>104</v>
       </c>
-      <c r="C70" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" t="s">
-        <v>107</v>
-      </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
@@ -3310,31 +3152,29 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I70"/>
       <c r="J70" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" t="s">
         <v>138</v>
       </c>
-      <c r="B71" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" t="s">
-        <v>139</v>
-      </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
@@ -3343,64 +3183,60 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I71"/>
       <c r="J71" t="s">
-        <v>140</v>
-      </c>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71" t="b">
+        <v>139</v>
+      </c>
+      <c r="K71" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="s">
         <v>42</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>43</v>
       </c>
-      <c r="C72" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>195</v>
+      </c>
+      <c r="I72" t="s">
         <v>45</v>
-      </c>
-      <c r="E72" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
-        <v>197</v>
-      </c>
-      <c r="I72" t="s">
-        <v>47</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
         <v>48</v>
-      </c>
-      <c r="B73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" t="s">
-        <v>50</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3409,27 +3245,25 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>149</v>
-      </c>
-      <c r="C74" t="s">
-        <v>150</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3438,27 +3272,25 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s">
         <v>159</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>160</v>
-      </c>
-      <c r="C75" t="s">
-        <v>161</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3467,29 +3299,27 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" t="s">
         <v>198</v>
-      </c>
-      <c r="B76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C76" t="s">
-        <v>200</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3498,27 +3328,25 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3527,27 +3355,25 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3556,27 +3382,25 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3585,27 +3409,25 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" t="s">
         <v>206</v>
-      </c>
-      <c r="B80" t="s">
-        <v>207</v>
-      </c>
-      <c r="C80" t="s">
-        <v>208</v>
       </c>
       <c r="D80"/>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3614,30 +3436,28 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" t="s">
         <v>103</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>104</v>
       </c>
-      <c r="C81" t="s">
-        <v>105</v>
-      </c>
-      <c r="D81" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" t="s">
-        <v>107</v>
-      </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
@@ -3645,31 +3465,29 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I81"/>
       <c r="J81" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" t="s">
         <v>138</v>
       </c>
-      <c r="B82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" t="s">
-        <v>139</v>
-      </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
@@ -3678,15 +3496,13 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>140</v>
-      </c>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82" t="b">
+        <v>139</v>
+      </c>
+      <c r="K82" t="b">
         <v>1</v>
       </c>
     </row>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9015, 2021-07-28)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9023, 2021-08-30)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">auto</t>
   </si>
   <si>
-    <t xml:space="preserve">umcg_numr</t>
+    <t xml:space="preserve">umcgID</t>
   </si>
   <si>
     <t xml:space="preserve">UMCG Number</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">cosas_patients</t>
   </si>
   <si>
-    <t xml:space="preserve">family_numr</t>
+    <t xml:space="preserve">familyID</t>
   </si>
   <si>
     <t xml:space="preserve">Family Number</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">Familie Nummer</t>
   </si>
   <si>
-    <t xml:space="preserve">dob</t>
+    <t xml:space="preserve">dateOfBirth</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Birth</t>
@@ -175,10 +175,10 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">biological_sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bioloigical Sex</t>
+    <t xml:space="preserve">biologicalSex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biological Sex</t>
   </si>
   <si>
     <t xml:space="preserve">Biologisch Geslacht</t>
@@ -187,10 +187,10 @@
     <t xml:space="preserve">categorical</t>
   </si>
   <si>
-    <t xml:space="preserve">cosasrefs_biological_sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maternal_id</t>
+    <t xml:space="preserve">cosasrefs_biologicalSex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maternalID</t>
   </si>
   <si>
     <t xml:space="preserve">Maternal ID</t>
@@ -199,13 +199,13 @@
     <t xml:space="preserve">Maternale ID</t>
   </si>
   <si>
-    <t xml:space="preserve">paternal_id</t>
+    <t xml:space="preserve">paternalID</t>
   </si>
   <si>
     <t xml:space="preserve">Paternal ID</t>
   </si>
   <si>
-    <t xml:space="preserve">linked_family_ids</t>
+    <t xml:space="preserve">linkedFamilyIDs</t>
   </si>
   <si>
     <t xml:space="preserve">Linked Family IDs</t>
@@ -217,19 +217,19 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">is_deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Deceased</t>
+    <t xml:space="preserve">inclusionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
   </si>
   <si>
     <t xml:space="preserve">Overlijden</t>
   </si>
   <si>
-    <t xml:space="preserve">cosasrefs_inclusion_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_deceased</t>
+    <t xml:space="preserve">cosasrefs_inclusionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateofDeath</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Death</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Overlijdensdatum</t>
   </si>
   <si>
-    <t xml:space="preserve">age_at_death</t>
+    <t xml:space="preserve">ageAtDeath</t>
   </si>
   <si>
     <t xml:space="preserve">Age at death</t>
@@ -265,19 +265,19 @@
     <t xml:space="preserve">consanguiniteit</t>
   </si>
   <si>
-    <t xml:space="preserve">is_fetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is fetus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is foetus</t>
-  </si>
-  <si>
     <t xml:space="preserve">bool</t>
   </si>
   <si>
-    <t xml:space="preserve">is_twin</t>
+    <t xml:space="preserve">fetalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetal Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foetusstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twinStatus</t>
   </si>
   <si>
     <t xml:space="preserve">Twin Status</t>
@@ -292,16 +292,16 @@
     <t xml:space="preserve">Heeft een tweeling of wordt ervan verdacht een tweeling te hebben</t>
   </si>
   <si>
-    <t xml:space="preserve">linked_patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linked Patient ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gekoppelde patientnummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_first_consult</t>
+    <t xml:space="preserve">altPersonalID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked UMCG number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gekoppelde UMCG nummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstContact</t>
   </si>
   <si>
     <t xml:space="preserve">First Consult Date</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">eerst op poli gezien</t>
   </si>
   <si>
-    <t xml:space="preserve">date_last_updated</t>
+    <t xml:space="preserve">dateLastUpdated</t>
   </si>
   <si>
     <t xml:space="preserve">Date last updated</t>
@@ -340,34 +340,16 @@
     <t xml:space="preserve">cosas_clinical</t>
   </si>
   <si>
-    <t xml:space="preserve">event_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebeurtenistype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event is either diagnosis or HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebeurtenis is diagnose of HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary_dx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primaire diagnose</t>
+    <t xml:space="preserve">provisionalPhenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisional Phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voorlopig fenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a tentative diagnosis - still a candidate that is under consideration</t>
   </si>
   <si>
     <t xml:space="preserve">mref</t>
@@ -376,55 +358,214 @@
     <t xml:space="preserve">cosasrefs_diagnoses</t>
   </si>
   <si>
-    <t xml:space="preserve">primary_dx_certainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certainty of the primary diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zekerheid van de primaire diagnose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_diagnostic_certainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extra_dx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bijkomende diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extra_dx_certainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certainty of the additional diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zekerheid van de bijkomende diagnose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPO Codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPO codes</t>
+    <t xml:space="preserve">Dit is een voorlopige diagnose - nog steeds een kandidaat die wordt overwogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provisionalPhenotypeHpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisional HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voorlopig fenotype HPO</t>
   </si>
   <si>
     <t xml:space="preserve">cosasrefs_phenotype</t>
   </si>
   <si>
-    <t xml:space="preserve">ond_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public information research ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voorlichtingsonderzoek</t>
+    <t xml:space="preserve">excludedPhenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluded Phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uitgesloten fenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This condition has been ruled out by subsequent diagnostic and clinical evidence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deze aandoening is uitgesloten door latere diagnostische en klinische bewijzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excludedPhenotypeHpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluded Phenotype HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uitgesloten fenotype HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmedHpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmed HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevestigde HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosas_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requestID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aanvraag ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requestDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aanvraag datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnaID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA nummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">materialType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiaalsoort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labIndication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab indicatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_labIndications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_testCodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testdatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einduitslag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final result date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einduitslag datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requestResultID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final result request ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adviesvraaguitslag ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labuitslag Tekst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labResultDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab result date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labuitslag datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labResultID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab result ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labuitslag ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labResultAvailability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab result availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labuitslag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authorizationStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geautoriseerd Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disorderCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disorder code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aandoening code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_conditionCodes</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -436,61 +577,10 @@
     <t xml:space="preserve">automatisch gegenereerde ID</t>
   </si>
   <si>
-    <t xml:space="preserve">cosas_samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">request_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aanvraag ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dna_numr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA nummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiaalsoort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_material_types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lab_indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab indicatie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_lab_indications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_id</t>
+    <t xml:space="preserve">cosas_labs_array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testID</t>
   </si>
   <si>
     <t xml:space="preserve">Test ID</t>
@@ -499,57 +589,6 @@
     <t xml:space="preserve">Test-ID</t>
   </si>
   <si>
-    <t xml:space="preserve">test_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_test_codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testdatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testresultaat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_result_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test result status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status testresultaat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disorder_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disorder code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aandoening code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_condition_codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosas_labs_array</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Code</t>
   </si>
   <si>
@@ -562,13 +601,13 @@
     <t xml:space="preserve">Sequencer</t>
   </si>
   <si>
-    <t xml:space="preserve">prep_kit</t>
+    <t xml:space="preserve">prepKit</t>
   </si>
   <si>
     <t xml:space="preserve">Prep Kit</t>
   </si>
   <si>
-    <t xml:space="preserve">sequencing_type</t>
+    <t xml:space="preserve">sequencingType</t>
   </si>
   <si>
     <t xml:space="preserve">Sequencing type</t>
@@ -577,25 +616,28 @@
     <t xml:space="preserve">Sequencing Type</t>
   </si>
   <si>
-    <t xml:space="preserve">seqtype</t>
+    <t xml:space="preserve">seqType</t>
   </si>
   <si>
     <t xml:space="preserve">Seq Type</t>
   </si>
   <si>
-    <t xml:space="preserve">capturing_kit</t>
+    <t xml:space="preserve">capturingKit</t>
   </si>
   <si>
     <t xml:space="preserve">Capturing Kit</t>
   </si>
   <si>
-    <t xml:space="preserve">batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genome_build</t>
+    <t xml:space="preserve">batchName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch Naam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomeBuild</t>
   </si>
   <si>
     <t xml:space="preserve">Genome Build</t>
@@ -628,7 +670,7 @@
     <t xml:space="preserve">Checksum</t>
   </si>
   <si>
-    <t xml:space="preserve">created</t>
+    <t xml:space="preserve">dateCreated</t>
   </si>
   <si>
     <t xml:space="preserve">Date created</t>
@@ -1483,7 +1525,7 @@
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1500,17 +1542,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1539,7 +1581,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1662,7 +1704,7 @@
         <v>106</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1678,17 +1720,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19"/>
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1699,25 +1743,27 @@
       <c r="H19" t="s">
         <v>107</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
       <c r="K19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1728,25 +1774,27 @@
       <c r="H20" t="s">
         <v>107</v>
       </c>
-      <c r="I20"/>
-      <c r="J20" t="s">
-        <v>112</v>
-      </c>
+      <c r="I20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20"/>
       <c r="K20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21"/>
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1757,23 +1805,27 @@
       <c r="H21" t="s">
         <v>107</v>
       </c>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
       <c r="K21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1785,24 +1837,24 @@
         <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1814,53 +1866,55 @@
         <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24"/>
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1869,45 +1923,37 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" t="s">
-        <v>123</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
         <v>130</v>
       </c>
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J26" t="s">
-        <v>132</v>
-      </c>
+      <c r="I26"/>
+      <c r="J26"/>
       <c r="K26"/>
     </row>
     <row r="27">
@@ -1922,7 +1968,7 @@
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1931,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -1939,19 +1985,17 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" t="s">
-        <v>103</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D28"/>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1960,91 +2004,79 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="I28"/>
-      <c r="J28" t="s">
-        <v>105</v>
-      </c>
+      <c r="J28"/>
       <c r="K28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" t="s">
-        <v>138</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D29"/>
       <c r="E29" t="s">
         <v>44</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="I29"/>
-      <c r="J29" t="s">
-        <v>139</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
+      <c r="J29"/>
+      <c r="K29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D30"/>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" t="s">
-        <v>45</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2053,25 +2085,27 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31"/>
+        <v>130</v>
+      </c>
+      <c r="I31" t="s">
+        <v>149</v>
+      </c>
       <c r="J31"/>
       <c r="K31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2080,25 +2114,27 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32"/>
+        <v>130</v>
+      </c>
+      <c r="I32" t="s">
+        <v>152</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2107,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -2115,17 +2151,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2134,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -2142,17 +2178,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2161,27 +2197,25 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" t="s">
-        <v>153</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2190,27 +2224,25 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" t="s">
-        <v>157</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2219,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -2227,17 +2259,17 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2246,27 +2278,25 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I38" t="s">
-        <v>163</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2275,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
@@ -2283,17 +2313,17 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2302,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -2310,17 +2340,17 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2329,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -2337,13 +2367,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
@@ -2356,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I42" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -2387,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I43"/>
       <c r="J43" t="s">
@@ -2397,16 +2427,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
         <v>44</v>
@@ -2418,11 +2448,11 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -2451,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I45" t="s">
         <v>45</v>
@@ -2480,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -2488,13 +2518,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
@@ -2507,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -2515,13 +2545,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
@@ -2534,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -2542,13 +2572,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
@@ -2561,23 +2591,23 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I49" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -2590,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -2598,13 +2628,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -2617,23 +2647,23 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I51" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -2646,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -2675,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I53"/>
       <c r="J53" t="s">
@@ -2685,16 +2715,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
         <v>44</v>
@@ -2706,11 +2736,11 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -2739,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
@@ -2768,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -2776,13 +2806,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
@@ -2795,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -2803,13 +2833,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -2822,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -2830,13 +2860,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
@@ -2849,23 +2879,23 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
@@ -2878,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -2886,13 +2916,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
@@ -2905,23 +2935,23 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I61" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
@@ -2934,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -2942,13 +2972,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
@@ -2961,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -2969,13 +2999,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
@@ -2988,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
@@ -2996,13 +3026,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
@@ -3015,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
@@ -3023,13 +3053,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
@@ -3042,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
@@ -3050,13 +3080,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
@@ -3069,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
@@ -3077,13 +3107,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="s">
@@ -3096,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
@@ -3104,13 +3134,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -3123,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
@@ -3152,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I70"/>
       <c r="J70" t="s">
@@ -3162,16 +3192,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
         <v>44</v>
@@ -3183,11 +3213,11 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I71"/>
       <c r="J71" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
@@ -3216,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I72" t="s">
         <v>45</v>
@@ -3245,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
@@ -3253,13 +3283,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -3272,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
@@ -3280,13 +3310,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
@@ -3299,23 +3329,23 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I75" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
@@ -3328,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
@@ -3336,13 +3366,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
@@ -3355,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
@@ -3363,13 +3393,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -3382,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
@@ -3390,13 +3420,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
@@ -3409,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
@@ -3417,13 +3447,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D80"/>
       <c r="E80" t="s">
@@ -3436,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I80"/>
       <c r="J80"/>
@@ -3465,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I81"/>
       <c r="J81" t="s">
@@ -3475,16 +3505,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="E82" t="s">
         <v>44</v>
@@ -3496,11 +3526,11 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9023, 2021-08-30)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9025, 2021-08-30)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">cosasrefs_inclusionStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">dateofDeath</t>
+    <t xml:space="preserve">dateOfDeath</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Death</t>
@@ -268,10 +268,10 @@
     <t xml:space="preserve">bool</t>
   </si>
   <si>
-    <t xml:space="preserve">fetalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetal Status</t>
+    <t xml:space="preserve">fetusStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetus Status</t>
   </si>
   <si>
     <t xml:space="preserve">Foetusstatus</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">Heeft een tweeling of wordt ervan verdacht een tweeling te hebben</t>
   </si>
   <si>
-    <t xml:space="preserve">altPersonalID</t>
+    <t xml:space="preserve">altPatientID</t>
   </si>
   <si>
     <t xml:space="preserve">Linked UMCG number</t>
@@ -301,21 +301,6 @@
     <t xml:space="preserve">Gekoppelde UMCG nummer</t>
   </si>
   <si>
-    <t xml:space="preserve">firstContact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Consult Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum eerst consult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first time seen in the clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eerst op poli gezien</t>
-  </si>
-  <si>
     <t xml:space="preserve">dateLastUpdated</t>
   </si>
   <si>
@@ -334,78 +319,78 @@
     <t xml:space="preserve">Datum laatste bijwerking in COSAS</t>
   </si>
   <si>
+    <t xml:space="preserve">cosas_clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provisionalPhenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisional Phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voorlopig fenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a tentative diagnosis - still a candidate that is under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_diagnoses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit is een voorlopige diagnose - nog steeds een kandidaat die wordt overwogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provisionalPhenotypeHpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisional HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voorlopig fenotype HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasrefs_phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excludedPhenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluded Phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uitgesloten fenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This condition has been ruled out by subsequent diagnostic and clinical evidence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deze aandoening is uitgesloten door latere diagnostische en klinische bewijzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excludedPhenotypeHpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluded Phenotype HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uitgesloten fenotype HPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmedPhenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmed Phenotyp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevestigde Phenotype</t>
+  </si>
+  <si>
     <t xml:space="preserve">xref</t>
   </si>
   <si>
-    <t xml:space="preserve">cosas_clinical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provisionalPhenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provisional Phenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voorlopig fenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a tentative diagnosis - still a candidate that is under consideration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dit is een voorlopige diagnose - nog steeds een kandidaat die wordt overwogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provisionalPhenotypeHpo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provisional HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voorlopig fenotype HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_phenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excludedPhenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluded Phenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uitgesloten fenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This condition has been ruled out by subsequent diagnostic and clinical evidence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deze aandoening is uitgesloten door latere diagnostische en klinische bewijzen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excludedPhenotypeHpo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluded Phenotype HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uitgesloten fenotype HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confirmedHpo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmed HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bevestigde HPO</t>
-  </si>
-  <si>
     <t xml:space="preserve">cosas_samples</t>
   </si>
   <si>
@@ -538,6 +523,15 @@
     <t xml:space="preserve">Labuitslag ID</t>
   </si>
   <si>
+    <t xml:space="preserve">labResultComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab result comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labuitslag commentaar</t>
+  </si>
+  <si>
     <t xml:space="preserve">labResultAvailability</t>
   </si>
   <si>
@@ -563,9 +557,6 @@
   </si>
   <si>
     <t xml:space="preserve">Aandoening code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosasrefs_conditionCodes</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -1639,7 +1630,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1652,180 +1643,176 @@
       </c>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
       <c r="I17"/>
-      <c r="J17" t="s">
-        <v>105</v>
-      </c>
+      <c r="J17"/>
       <c r="K17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
         <v>106</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
         <v>107</v>
       </c>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18"/>
+      <c r="J18" t="s">
+        <v>108</v>
+      </c>
       <c r="K18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s">
         <v>111</v>
       </c>
+      <c r="D19"/>
       <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
         <v>112</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" t="s">
-        <v>114</v>
-      </c>
+      <c r="J19"/>
       <c r="K19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
         <v>115</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" t="s">
         <v>117</v>
       </c>
-      <c r="D20"/>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20"/>
       <c r="K20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>120</v>
       </c>
-      <c r="C21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
-      </c>
+      <c r="D21"/>
       <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
         <v>112</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" t="s">
-        <v>123</v>
-      </c>
+      <c r="J21"/>
       <c r="K21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1834,83 +1821,81 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23"/>
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D24"/>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
@@ -1923,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -1931,17 +1916,17 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
         <v>131</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>133</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1950,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -1958,17 +1943,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
         <v>134</v>
-      </c>
-      <c r="B27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" t="s">
-        <v>136</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1977,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -1985,13 +1970,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
         <v>137</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" t="s">
-        <v>139</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
@@ -2004,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -2012,13 +1997,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
         <v>140</v>
-      </c>
-      <c r="B29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" t="s">
-        <v>142</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
@@ -2031,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -2039,17 +2024,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
         <v>143</v>
-      </c>
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" t="s">
-        <v>145</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -2058,25 +2043,27 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>130</v>
-      </c>
-      <c r="I30"/>
+        <v>125</v>
+      </c>
+      <c r="I30" t="s">
+        <v>144</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
         <v>146</v>
       </c>
-      <c r="B31" t="s">
-        <v>147</v>
-      </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2085,27 +2072,27 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
         <v>150</v>
-      </c>
-      <c r="B32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" t="s">
-        <v>151</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2114,27 +2101,25 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" t="s">
-        <v>152</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
         <v>153</v>
-      </c>
-      <c r="B33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" t="s">
-        <v>155</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2143,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -2151,17 +2136,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
         <v>156</v>
-      </c>
-      <c r="B34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" t="s">
-        <v>158</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2170,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -2178,13 +2163,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
         <v>159</v>
-      </c>
-      <c r="B35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" t="s">
-        <v>161</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
@@ -2197,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -2205,17 +2190,17 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
         <v>162</v>
-      </c>
-      <c r="B36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" t="s">
-        <v>164</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2224,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -2232,17 +2217,17 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
         <v>165</v>
-      </c>
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>167</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2251,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -2259,17 +2244,17 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
         <v>168</v>
-      </c>
-      <c r="B38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" t="s">
-        <v>170</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2278,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I38"/>
       <c r="J38"/>
@@ -2286,17 +2271,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
         <v>171</v>
-      </c>
-      <c r="B39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" t="s">
-        <v>173</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2305,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
@@ -2313,13 +2298,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
         <v>174</v>
-      </c>
-      <c r="B40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" t="s">
-        <v>176</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
@@ -2332,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -2340,13 +2325,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
         <v>177</v>
-      </c>
-      <c r="B41" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" t="s">
-        <v>179</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
@@ -2359,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -2367,17 +2352,17 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" t="s">
         <v>180</v>
-      </c>
-      <c r="B42" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" t="s">
-        <v>182</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2386,29 +2371,27 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>130</v>
-      </c>
-      <c r="I42" t="s">
-        <v>183</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2417,26 +2400,26 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
         <v>44</v>
@@ -2448,11 +2431,11 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -2472,7 +2455,7 @@
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2481,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I45" t="s">
         <v>45</v>
@@ -2510,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -2518,13 +2501,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
@@ -2537,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -2545,13 +2528,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
@@ -2564,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -2572,17 +2555,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2591,23 +2574,23 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I49" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -2620,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -2628,17 +2611,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -2647,23 +2630,23 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I51" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -2676,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -2684,19 +2667,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -2705,42 +2688,42 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
         <v>184</v>
-      </c>
-      <c r="B54" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>187</v>
       </c>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -2760,7 +2743,7 @@
         <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -2769,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
@@ -2798,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -2806,13 +2789,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
@@ -2825,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -2833,13 +2816,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -2852,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -2860,17 +2843,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -2879,23 +2862,23 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
@@ -2908,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -2916,17 +2899,17 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2935,23 +2918,23 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I61" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
@@ -2964,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -2972,13 +2955,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
@@ -2991,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -2999,13 +2982,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
@@ -3018,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
@@ -3026,13 +3009,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
@@ -3045,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
@@ -3053,13 +3036,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
@@ -3072,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
@@ -3080,13 +3063,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
@@ -3099,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
@@ -3107,13 +3090,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="s">
@@ -3126,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
@@ -3134,13 +3117,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -3153,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
@@ -3161,19 +3144,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3182,26 +3165,26 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I70"/>
       <c r="J70" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E71" t="s">
         <v>44</v>
@@ -3213,11 +3196,11 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I71"/>
       <c r="J71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
@@ -3237,7 +3220,7 @@
         <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3246,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I72" t="s">
         <v>45</v>
@@ -3275,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
@@ -3283,13 +3266,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -3302,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
@@ -3310,17 +3293,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3329,23 +3312,23 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I75" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
@@ -3358,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
@@ -3366,13 +3349,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
@@ -3385,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
@@ -3393,13 +3376,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -3412,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
@@ -3420,13 +3403,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
@@ -3439,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
@@ -3447,13 +3430,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D80"/>
       <c r="E80" t="s">
@@ -3466,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I80"/>
       <c r="J80"/>
@@ -3474,19 +3457,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3495,26 +3478,26 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I81"/>
       <c r="J81" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E82" t="s">
         <v>44</v>
@@ -3526,11 +3509,11 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9025, 2021-08-30)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9026, 2021-09-01)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">excludedPhenotypeHpo</t>
   </si>
   <si>
-    <t xml:space="preserve">Excluded Phenotype HPO</t>
+    <t xml:space="preserve">Excluded HPO</t>
   </si>
   <si>
     <t xml:space="preserve">Uitgesloten fenotype HPO</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">confirmedPhenotype</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmed Phenotyp</t>
+    <t xml:space="preserve">Confirmed Phenotype</t>
   </si>
   <si>
     <t xml:space="preserve">Bevestigde Phenotype</t>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS</t>
   </si>
   <si>
-    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9026, 2021-09-01)</t>
+    <t xml:space="preserve">The Catalogue of Sequence Array and Samples (v0.9027, 2021-09-02)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -1831,71 +1831,75 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23"/>
+        <v>101</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23" t="s">
+        <v>100</v>
+      </c>
       <c r="K23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24"/>
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>125</v>
       </c>
-      <c r="I24"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
@@ -1916,17 +1920,17 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1943,17 +1947,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1970,13 +1974,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
@@ -1997,13 +2001,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
@@ -2024,17 +2028,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -2045,21 +2049,19 @@
       <c r="H30" t="s">
         <v>125</v>
       </c>
-      <c r="I30" t="s">
-        <v>144</v>
-      </c>
+      <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
@@ -2075,24 +2077,24 @@
         <v>125</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2103,23 +2105,25 @@
       <c r="H32" t="s">
         <v>125</v>
       </c>
-      <c r="I32"/>
+      <c r="I32" t="s">
+        <v>147</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2136,17 +2140,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2163,13 +2167,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
@@ -2190,17 +2194,17 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2217,17 +2221,17 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2244,17 +2248,17 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2271,17 +2275,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2298,17 +2302,17 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2325,17 +2329,17 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2352,17 +2356,17 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2379,19 +2383,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D43"/>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2403,29 +2405,27 @@
         <v>125</v>
       </c>
       <c r="I43"/>
-      <c r="J43" t="s">
-        <v>100</v>
-      </c>
+      <c r="J43"/>
       <c r="K43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2435,79 +2435,83 @@
       </c>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>183</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>184</v>
-      </c>
-      <c r="I45" t="s">
-        <v>45</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45"/>
+        <v>125</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45" t="s">
+        <v>183</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46"/>
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
         <v>184</v>
       </c>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
       <c r="J46"/>
       <c r="K46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
@@ -2528,13 +2532,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
@@ -2555,17 +2559,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2576,25 +2580,23 @@
       <c r="H49" t="s">
         <v>184</v>
       </c>
-      <c r="I49" t="s">
-        <v>144</v>
-      </c>
+      <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2605,23 +2607,25 @@
       <c r="H50" t="s">
         <v>184</v>
       </c>
-      <c r="I50"/>
+      <c r="I50" t="s">
+        <v>144</v>
+      </c>
       <c r="J50"/>
       <c r="K50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -2632,25 +2636,23 @@
       <c r="H51" t="s">
         <v>184</v>
       </c>
-      <c r="I51" t="s">
-        <v>147</v>
-      </c>
+      <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -2661,25 +2663,25 @@
       <c r="H52" t="s">
         <v>184</v>
       </c>
-      <c r="I52"/>
+      <c r="I52" t="s">
+        <v>147</v>
+      </c>
       <c r="J52"/>
       <c r="K52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D53"/>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -2691,29 +2693,27 @@
         <v>184</v>
       </c>
       <c r="I53"/>
-      <c r="J53" t="s">
-        <v>100</v>
-      </c>
+      <c r="J53"/>
       <c r="K53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -2723,79 +2723,83 @@
       </c>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>183</v>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>189</v>
-      </c>
-      <c r="I55" t="s">
-        <v>45</v>
-      </c>
-      <c r="J55"/>
-      <c r="K55"/>
+        <v>184</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56"/>
+        <v>42</v>
+      </c>
+      <c r="D56" t="s">
+        <v>43</v>
+      </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
         <v>189</v>
       </c>
-      <c r="I56"/>
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
       <c r="J56"/>
       <c r="K56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
@@ -2816,13 +2820,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -2843,17 +2847,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -2864,25 +2868,23 @@
       <c r="H59" t="s">
         <v>189</v>
       </c>
-      <c r="I59" t="s">
-        <v>144</v>
-      </c>
+      <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -2893,23 +2895,25 @@
       <c r="H60" t="s">
         <v>189</v>
       </c>
-      <c r="I60"/>
+      <c r="I60" t="s">
+        <v>144</v>
+      </c>
       <c r="J60"/>
       <c r="K60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2920,25 +2924,23 @@
       <c r="H61" t="s">
         <v>189</v>
       </c>
-      <c r="I61" t="s">
-        <v>147</v>
-      </c>
+      <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -2949,23 +2951,25 @@
       <c r="H62" t="s">
         <v>189</v>
       </c>
-      <c r="I62"/>
+      <c r="I62" t="s">
+        <v>147</v>
+      </c>
       <c r="J62"/>
       <c r="K62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -2982,13 +2986,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
@@ -3009,13 +3013,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
@@ -3036,13 +3040,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
@@ -3063,13 +3067,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
@@ -3090,13 +3094,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="s">
@@ -3117,13 +3121,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -3144,19 +3148,17 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" t="s">
-        <v>98</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D70"/>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3168,29 +3170,27 @@
         <v>189</v>
       </c>
       <c r="I70"/>
-      <c r="J70" t="s">
-        <v>100</v>
-      </c>
+      <c r="J70"/>
       <c r="K70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -3200,79 +3200,83 @@
       </c>
       <c r="I71"/>
       <c r="J71" t="s">
-        <v>183</v>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" t="s">
-        <v>45</v>
-      </c>
-      <c r="J72"/>
-      <c r="K72"/>
+        <v>189</v>
+      </c>
+      <c r="I72"/>
+      <c r="J72" t="s">
+        <v>183</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73"/>
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>43</v>
+      </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="s">
         <v>206</v>
       </c>
-      <c r="I73"/>
+      <c r="I73" t="s">
+        <v>45</v>
+      </c>
       <c r="J73"/>
       <c r="K73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -3293,17 +3297,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3314,25 +3318,23 @@
       <c r="H75" t="s">
         <v>206</v>
       </c>
-      <c r="I75" t="s">
-        <v>147</v>
-      </c>
+      <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3343,19 +3345,21 @@
       <c r="H76" t="s">
         <v>206</v>
       </c>
-      <c r="I76"/>
+      <c r="I76" t="s">
+        <v>147</v>
+      </c>
       <c r="J76"/>
       <c r="K76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
@@ -3376,13 +3380,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -3403,13 +3407,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
@@ -3430,17 +3434,17 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D80"/>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3457,19 +3461,17 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" t="s">
-        <v>98</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D81"/>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3481,29 +3483,27 @@
         <v>206</v>
       </c>
       <c r="I81"/>
-      <c r="J81" t="s">
-        <v>100</v>
-      </c>
+      <c r="J81"/>
       <c r="K81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -3513,9 +3513,40 @@
       </c>
       <c r="I82"/>
       <c r="J82" t="s">
+        <v>100</v>
+      </c>
+      <c r="K82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>206</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83" t="s">
         <v>183</v>
       </c>
-      <c r="K82" t="b">
+      <c r="K83" t="b">
         <v>1</v>
       </c>
     </row>

--- a/emx/cosas/cosas.xlsx
+++ b/emx/cosas/cosas.xlsx
@@ -2177,7 +2177,7 @@
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
